--- a/FIFA_win_map/static/Project2/fifa_wins.xlsx
+++ b/FIFA_win_map/static/Project2/fifa_wins.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fractals\Desktop\UCB_analytics\GitHub\Project3_TeamX\static\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:540008_{E3408A21-F39E-4B89-A080-74AE613A0C50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBB07EE2-8806-462E-9C19-0C5DA170265A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6456" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fifa_wins" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1031,11 +1031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>14.234999999999999</v>
+        <v>-14.234999999999999</v>
       </c>
       <c r="F2">
         <v>51.9253</v>

--- a/FIFA_win_map/static/Project2/fifa_wins.xlsx
+++ b/FIFA_win_map/static/Project2/fifa_wins.xlsx
@@ -8,59 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fractals\Desktop\UCB_analytics\GitHub\Project3_TeamX\static\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBB07EE2-8806-462E-9C19-0C5DA170265A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D0F5AA4B-C728-4A7C-87BC-95F8F61DB233}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fifa_wins" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Country	Wins	Runnerup	Totals	Lat	Lon</t>
-  </si>
-  <si>
-    <t> Brazil	5	2	7	14.235	51.9253</t>
-  </si>
-  <si>
-    <t> Germany	4	4	8	51.1657	10.4515</t>
-  </si>
-  <si>
-    <t> Italy	4	2	6	41.8719	12.5674</t>
-  </si>
-  <si>
-    <t> Argentina	2	3	5	38.4161	63.6167</t>
-  </si>
-  <si>
-    <t> Uruguay	2	0	2	32.5228	55.7658</t>
-  </si>
-  <si>
-    <t> France	1	1	2	46.2276	2.2137</t>
-  </si>
-  <si>
-    <t> England	1	0	1	55.3781	3.436</t>
-  </si>
-  <si>
-    <t> Spain	1	0	1	40.4637	3.7492</t>
-  </si>
-  <si>
-    <t> Netherlands	0	3	3	52.1326	5.2913</t>
-  </si>
-  <si>
-    <t> Czechoslovakia	0	2	2	49.8175	15.473</t>
-  </si>
-  <si>
-    <t> Hungary	0	2	2	47.1625	19.5033</t>
-  </si>
-  <si>
-    <t> Sweden	0	1	1	60.1282	18.6435</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Wins</t>
   </si>
@@ -953,116 +913,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1077,12 +959,12 @@
         <v>-14.234999999999999</v>
       </c>
       <c r="F2">
-        <v>51.9253</v>
+        <v>-51.9253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1102,7 +984,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1122,7 +1004,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1134,15 +1016,15 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>38.4161</v>
+        <v>-38.4161</v>
       </c>
       <c r="F5">
-        <v>63.616700000000002</v>
+        <v>-63.616700000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1154,15 +1036,15 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>32.522799999999997</v>
+        <v>-32.522799999999997</v>
       </c>
       <c r="F6">
-        <v>55.765799999999999</v>
+        <v>-55.765799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1182,7 +1064,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1194,15 +1076,15 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>55.378100000000003</v>
+        <v>51.507399999999997</v>
       </c>
       <c r="F8">
-        <v>3.4359999999999999</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1217,12 +1099,12 @@
         <v>40.463700000000003</v>
       </c>
       <c r="F9">
-        <v>3.7492000000000001</v>
+        <v>-2.7492000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1242,7 +1124,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1262,7 +1144,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1282,7 +1164,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1297,7 +1179,7 @@
         <v>60.1282</v>
       </c>
       <c r="F13">
-        <v>18.6435</v>
+        <v>16.6435</v>
       </c>
     </row>
   </sheetData>

--- a/FIFA_win_map/static/Project2/fifa_wins.xlsx
+++ b/FIFA_win_map/static/Project2/fifa_wins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fractals\Desktop\UCB_analytics\GitHub\Project3_TeamX\static\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fractals\Desktop\UCB_analytics\GitHub\Project3_TeamX\A-Team\FIFA_win_map\static\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D0F5AA4B-C728-4A7C-87BC-95F8F61DB233}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B230B4B-8B04-4D3C-8EFE-BD8196C4506F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Wins</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>1958, 1962, 1970, 1994, 2002</t>
+  </si>
+  <si>
+    <t>1954, 1974, 1990, 2014</t>
+  </si>
+  <si>
+    <t>1934, 1938, 1982,  2006</t>
+  </si>
+  <si>
+    <t>1978, 1986</t>
+  </si>
+  <si>
+    <t>1930, 1950</t>
   </si>
 </sst>
 </file>
@@ -914,15 +932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -941,8 +959,11 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -961,8 +982,11 @@
       <c r="F2">
         <v>-51.9253</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -981,8 +1005,11 @@
       <c r="F3">
         <v>10.451499999999999</v>
       </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1028,11 @@
       <c r="F4">
         <v>12.567399999999999</v>
       </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1021,8 +1051,11 @@
       <c r="F5">
         <v>-63.616700000000002</v>
       </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1074,11 @@
       <c r="F6">
         <v>-55.765799999999999</v>
       </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1097,11 @@
       <c r="F7">
         <v>2.2136999999999998</v>
       </c>
+      <c r="G7">
+        <v>1998</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1081,8 +1120,11 @@
       <c r="F8">
         <v>0.1278</v>
       </c>
+      <c r="G8">
+        <v>1966</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1101,8 +1143,11 @@
       <c r="F9">
         <v>-2.7492000000000001</v>
       </c>
+      <c r="G9">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1167,7 @@
         <v>5.2912999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1187,7 @@
         <v>15.473000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1207,7 @@
         <v>19.503299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
